--- a/TemporaryFileStorage/HTMLAssessment.xlsx
+++ b/TemporaryFileStorage/HTMLAssessment.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27511"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE5B4CE7-B678-4A37-85BD-DE78F19A92CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1910F7B-711B-4BD8-9301-1B9E37E6FD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,18 +137,6 @@
       <color rgb="FF0D0D0D"/>
       <name val="Söhne"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8.4"/>
-      <color rgb="FF0D0D0D"/>
-      <name val="Söhne Mono"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.6"/>
-      <color rgb="FF0D0D0D"/>
-      <name val="Söhne"/>
     </font>
   </fonts>
   <fills count="3">
@@ -188,22 +176,23 @@
       <left style="thin">
         <color rgb="FFE3E3E3"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FFE3E3E3"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,21 +527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="43.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -590,96 +571,89 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
